--- a/output/SharedMedicinesList/medication-known-1.xlsx
+++ b/output/SharedMedicinesList/medication-known-1.xlsx
@@ -443,7 +443,7 @@
   </si>
   <si>
     <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amp-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
+inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -847,7 +847,7 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t>powder | tablets | capsule +</t>
+    <t xml:space="preserve">powder | tablets | capsule + </t>
   </si>
   <si>
     <t>Describes the form of the item.  Powder; tablets; capsule.</t>

--- a/output/SharedMedicinesList/medication-known-1.xlsx
+++ b/output/SharedMedicinesList/medication-known-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="368">
   <si>
     <t>Path</t>
   </si>
@@ -339,35 +339,18 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>pbsSponsor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/pbs-sponsor}
+    <t>brandName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-brand-name}
 </t>
   </si>
   <si>
-    <t>PBS Sponsor</t>
-  </si>
-  <si>
-    <t>Reference to the sponsor organisation that is responsible for the supply of the medicine.</t>
+    <t>Medication Brand Name</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-brand-name}
-</t>
-  </si>
-  <si>
-    <t>Medication Brand Name</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
@@ -1336,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2385,7 +2368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>94</v>
       </c>
@@ -2403,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>40</v>
@@ -2418,7 +2401,7 @@
         <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2478,10 +2461,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2501,7 +2484,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -2523,10 +2506,10 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>97</v>
@@ -2589,10 +2572,10 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2612,7 +2595,7 @@
         <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2634,13 +2617,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2700,11 +2683,11 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AJ12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2718,42 +2701,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2802,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2811,16 +2794,16 @@
         <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2829,41 +2812,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2889,13 +2872,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2913,36 +2896,36 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2950,32 +2933,30 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3000,13 +2981,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -3024,7 +3005,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3036,35 +3017,35 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -3076,7 +3057,7 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>139</v>
@@ -3084,7 +3065,9 @@
       <c r="L16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3121,25 +3104,25 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3151,7 +3134,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3166,7 +3149,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3182,21 +3165,23 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3232,11 +3217,9 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3244,7 +3227,7 @@
         <v>99</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3262,20 +3245,22 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3296,19 +3281,19 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3333,29 +3318,29 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3373,18 +3358,18 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>158</v>
@@ -3409,7 +3394,7 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>159</v>
@@ -3418,10 +3403,10 @@
         <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3446,11 +3431,11 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3468,7 +3453,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3486,21 +3471,21 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
@@ -3522,19 +3507,19 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3559,11 +3544,11 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3581,7 +3566,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3599,22 +3584,20 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3623,7 +3606,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3632,23 +3615,19 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3672,11 +3651,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3694,13 +3675,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3712,18 +3693,18 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3734,7 +3715,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3746,13 +3727,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3791,25 +3772,25 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3821,7 +3802,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3832,9 +3813,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3843,7 +3826,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3855,13 +3838,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3900,19 +3883,19 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3943,9 +3926,7 @@
       <c r="A24" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3966,13 +3947,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4023,13 +4004,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4041,7 +4022,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -4052,18 +4033,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4075,7 +4056,7 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>139</v>
@@ -4083,7 +4064,9 @@
       <c r="L25" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4120,25 +4103,25 @@
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4150,7 +4133,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4161,18 +4144,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4184,16 +4167,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4201,7 +4184,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>40</v>
@@ -4231,25 +4214,25 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4261,7 +4244,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4272,9 +4255,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4295,24 +4280,22 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4330,13 +4313,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4354,10 +4337,10 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>50</v>
@@ -4383,17 +4366,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B28" t="s" s="2">
         <v>185</v>
       </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4405,10 +4386,10 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>186</v>
@@ -4416,8 +4397,12 @@
       <c r="L28" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4441,13 +4426,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4465,7 +4450,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4483,18 +4468,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4517,20 +4502,18 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4578,7 +4561,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4596,18 +4579,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4630,18 +4613,18 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4689,7 +4672,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4707,18 +4690,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4741,17 +4724,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4800,7 +4783,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4818,18 +4801,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4852,17 +4835,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4911,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4929,20 +4914,22 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4963,19 +4950,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5000,13 +4987,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5024,13 +5009,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5042,22 +5027,20 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>227</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5078,19 +5061,19 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5115,11 +5098,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5137,13 +5122,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5155,18 +5140,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5189,20 +5174,18 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5226,13 +5209,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5250,7 +5233,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5268,18 +5251,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5302,17 +5285,15 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5337,52 +5318,52 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>245</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5413,7 +5394,7 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>247</v>
@@ -5485,21 +5466,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5513,7 +5494,7 @@
         <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5522,7 +5503,7 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>252</v>
@@ -5579,7 +5560,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5594,21 +5575,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5628,18 +5609,20 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5664,13 +5647,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5688,7 +5671,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5703,21 +5686,21 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5731,7 +5714,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -5740,17 +5723,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5775,13 +5756,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5799,7 +5780,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5814,32 +5795,32 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5851,7 +5832,7 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>139</v>
@@ -5859,7 +5840,9 @@
       <c r="L41" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5896,25 +5879,25 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5926,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5937,18 +5920,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5957,21 +5940,23 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6007,11 +5992,9 @@
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6019,7 +6002,7 @@
         <v>99</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6037,20 +6020,22 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6071,19 +6056,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6108,29 +6093,29 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6148,22 +6133,20 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6184,19 +6167,19 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6221,11 +6204,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6243,13 +6228,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6261,18 +6246,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6283,32 +6268,30 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>138</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6356,36 +6339,36 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6396,10 +6379,10 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -6408,17 +6391,15 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6467,25 +6448,25 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6496,18 +6477,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6519,7 +6500,7 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>139</v>
@@ -6527,7 +6508,9 @@
       <c r="L47" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6576,13 +6559,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6594,7 +6577,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6605,11 +6588,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6622,22 +6605,22 @@
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6687,7 +6670,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6705,7 +6688,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6714,42 +6697,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6798,38 +6779,40 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6841,7 +6824,7 @@
         <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -6850,13 +6833,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6907,46 +6890,44 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>50</v>
@@ -6961,13 +6942,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
+        <v>135</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7018,10 +6999,10 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>50</v>
@@ -7033,32 +7014,32 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7070,7 +7051,7 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>139</v>
@@ -7078,7 +7059,9 @@
       <c r="L52" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7115,25 +7098,25 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7145,7 +7128,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7156,11 +7139,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7176,21 +7159,23 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7226,11 +7211,9 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7238,7 +7221,7 @@
         <v>99</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7256,20 +7239,22 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7278,7 +7263,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7290,19 +7275,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7327,29 +7312,29 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7367,22 +7352,20 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7403,19 +7386,19 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7440,11 +7423,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7462,13 +7447,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7480,18 +7465,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7505,28 +7490,26 @@
         <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7575,7 +7558,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7593,18 +7576,18 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7627,7 +7610,7 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>312</v>
@@ -7636,9 +7619,7 @@
         <v>313</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7686,7 +7667,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7701,21 +7682,21 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7738,13 +7719,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7795,7 +7776,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7807,10 +7788,10 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>320</v>
@@ -7819,12 +7800,12 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
         <v>321</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7838,7 +7819,7 @@
         <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -7847,13 +7828,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7904,7 +7885,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7916,13 +7897,13 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>325</v>
+        <v>137</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7933,18 +7914,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7956,7 +7937,7 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>139</v>
@@ -7964,7 +7945,9 @@
       <c r="L60" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M60" s="2"/>
+      <c r="M60" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8013,13 +7996,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8031,7 +8014,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8042,11 +8025,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8059,22 +8042,22 @@
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8124,7 +8107,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8142,7 +8125,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8153,40 +8136,38 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8211,13 +8192,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8235,13 +8216,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8250,10 +8231,10 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8275,7 +8256,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8287,7 +8268,7 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>330</v>
@@ -8320,13 +8301,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
@@ -8350,19 +8331,19 @@
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8373,7 +8354,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8384,7 +8365,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8396,13 +8377,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8453,25 +8434,25 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>334</v>
+        <v>136</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8482,18 +8463,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8505,7 +8486,7 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>139</v>
@@ -8513,7 +8494,9 @@
       <c r="L65" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M65" s="2"/>
+      <c r="M65" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8562,13 +8545,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8580,7 +8563,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8591,11 +8574,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8608,22 +8591,22 @@
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8673,7 +8656,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8691,7 +8674,7 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8702,40 +8685,38 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8784,25 +8765,25 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8813,7 +8794,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8821,7 +8802,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
@@ -8836,13 +8817,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8893,10 +8874,10 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>50</v>
@@ -8908,10 +8889,10 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8920,9 +8901,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8933,10 +8914,10 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8945,13 +8926,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9002,25 +8983,25 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9029,9 +9010,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9042,10 +9023,10 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9054,13 +9035,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>351</v>
+        <v>135</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9111,25 +9092,25 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9140,18 +9121,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9163,7 +9144,7 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>139</v>
@@ -9171,7 +9152,9 @@
       <c r="L71" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M71" s="2"/>
+      <c r="M71" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9220,13 +9203,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9238,7 +9221,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9249,11 +9232,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9266,22 +9249,22 @@
         <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9331,7 +9314,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9349,7 +9332,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9358,42 +9341,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>120</v>
+        <v>352</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9442,13 +9423,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9457,16 +9438,16 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74">
@@ -9494,13 +9475,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9566,21 +9547,21 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9591,10 +9572,10 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9603,16 +9584,18 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9660,13 +9643,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9675,131 +9658,20 @@
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM76">
+  <autoFilter ref="A1:AM75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9809,7 +9681,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-known-1.xlsx
+++ b/output/SharedMedicinesList/medication-known-1.xlsx
@@ -346,7 +346,7 @@
 </t>
   </si>
   <si>
-    <t>Medication Brand Name</t>
+    <t>Medication brand name</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -354,7 +354,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>genericName</t>
@@ -364,7 +364,7 @@
 </t>
   </si>
   <si>
-    <t>Medication Generic Drug Name</t>
+    <t>Medication generic drug name</t>
   </si>
   <si>
     <t>strengthText</t>
@@ -374,7 +374,7 @@
 </t>
   </si>
   <si>
-    <t>Medication Strength Text</t>
+    <t>Medication strength text</t>
   </si>
   <si>
     <t>A textual representation of medication strength to support systems with limited atomic ingredient data support.</t>

--- a/output/SharedMedicinesList/medication-known-1.xlsx
+++ b/output/SharedMedicinesList/medication-known-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="373">
   <si>
     <t>Path</t>
   </si>
@@ -349,6 +349,9 @@
     <t>Medication brand name</t>
   </si>
   <si>
+    <t>The brand medication text name for an associated medication, this may be supplied if a coded brand name is not available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -367,33 +370,94 @@
     <t>Medication generic drug name</t>
   </si>
   <si>
+    <t>The generic medication text name for an associated medication, this may not be the same as the subject medication (prescribed, dispensed or stated) but may be used to provide an additional or equivalent drug name that is a generic medication concept.</t>
+  </si>
+  <si>
     <t>strengthText</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-strength-text}
+    <t>Medication strength text</t>
+  </si>
+  <si>
+    <t>Medication.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Medication strength text</t>
-  </si>
-  <si>
-    <t>A textual representation of medication strength to support systems with limited atomic ingredient data support.</t>
-  </si>
-  <si>
-    <t>Medication.modifierExtension</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.extension.extension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Medication.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Medication.modifierExtension</t>
+  </si>
+  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -425,8 +489,8 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extention.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
+    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
+inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -448,35 +512,7 @@
     <t>Medication.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Medication.code.coding</t>
@@ -575,37 +611,16 @@
     <t>Medication.code.coding.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
     <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>Medication.code.coding.extension.valueCoding</t>
   </si>
   <si>
     <t>valueCoding</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -830,7 +845,7 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t xml:space="preserve">powder | tablets | capsule + </t>
+    <t>powder | tablets | capsule +</t>
   </si>
   <si>
     <t>Describes the form of the item.  Powder; tablets; capsule.</t>
@@ -1319,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2401,7 +2416,7 @@
         <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2461,10 +2476,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2484,7 +2499,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -2506,13 +2521,13 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2572,10 +2587,10 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2595,7 +2610,7 @@
         <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2605,7 +2620,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>51</v>
@@ -2617,13 +2632,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2683,10 +2698,10 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>40</v>
@@ -2707,26 +2722,26 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>115</v>
@@ -2734,9 +2749,7 @@
       <c r="L13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2785,26 +2798,26 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2812,32 +2825,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>121</v>
@@ -2872,60 +2885,60 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2933,7 +2946,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2948,15 +2961,17 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3005,10 +3020,10 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>50</v>
@@ -3023,7 +3038,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3034,18 +3049,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -3057,17 +3072,15 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3104,25 +3117,25 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -3134,7 +3147,7 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -3145,11 +3158,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3162,26 +3175,24 @@
         <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3217,17 +3228,19 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3245,34 +3258,32 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3281,20 +3292,18 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3318,11 +3327,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3340,28 +3351,28 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>152</v>
@@ -3369,11 +3380,9 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3391,23 +3400,19 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3431,11 +3436,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3453,13 +3460,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3471,24 +3478,22 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3504,23 +3509,21 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3544,29 +3547,31 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3584,18 +3589,18 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3606,7 +3611,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3615,19 +3620,23 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3663,25 +3672,23 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3693,20 +3700,22 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3724,19 +3733,23 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3760,31 +3773,29 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3802,21 +3813,21 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
@@ -3826,7 +3837,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3835,19 +3846,23 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3871,13 +3886,11 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3895,7 +3908,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3913,20 +3926,22 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3944,19 +3959,23 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3980,13 +3999,11 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4004,13 +4021,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4022,29 +4039,29 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4056,17 +4073,15 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4103,25 +4118,25 @@
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4133,7 +4148,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4144,7 +4159,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4152,10 +4167,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4167,24 +4182,22 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>40</v>
@@ -4214,25 +4227,25 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4244,7 +4257,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4255,17 +4268,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4280,7 +4293,7 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>181</v>
@@ -4313,13 +4326,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4337,13 +4350,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4366,7 +4379,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4386,23 +4399,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4468,29 +4477,29 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4499,19 +4508,19 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4549,25 +4558,25 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4579,18 +4588,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4598,7 +4607,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>50</v>
@@ -4610,27 +4619,27 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>40</v>
@@ -4672,10 +4681,10 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>50</v>
@@ -4690,26 +4699,28 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
@@ -4721,21 +4732,19 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4759,13 +4768,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4783,7 +4792,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4801,18 +4810,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4835,19 +4844,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4896,7 +4905,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4914,22 +4923,20 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4950,20 +4957,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4987,11 +4992,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5009,13 +5016,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5027,18 +5034,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5061,19 +5068,17 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5122,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5140,18 +5145,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5174,18 +5179,18 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5209,13 +5214,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5233,7 +5238,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5251,18 +5256,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5285,16 +5290,20 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5357,23 +5366,25 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5394,16 +5405,20 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5427,13 +5442,11 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5451,13 +5464,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5469,18 +5482,18 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5494,7 +5507,7 @@
         <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5503,16 +5516,20 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5560,7 +5577,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5575,21 +5592,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5603,25 +5620,25 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5647,13 +5664,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5671,7 +5688,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5686,21 +5703,21 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5720,16 +5737,16 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5780,7 +5797,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5795,13 +5812,13 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5809,18 +5826,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5829,20 +5846,18 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5879,25 +5894,25 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5909,18 +5924,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5934,7 +5949,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -5943,20 +5958,16 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5992,23 +6003,25 @@
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6017,25 +6030,23 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>152</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6047,29 +6058,27 @@
         <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6093,11 +6102,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6115,13 +6126,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6130,21 +6141,21 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>152</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6164,23 +6175,19 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6246,22 +6253,22 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6271,7 +6278,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6280,16 +6287,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6327,19 +6334,19 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6351,13 +6358,13 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6368,7 +6375,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6388,19 +6395,23 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6436,25 +6447,23 @@
         <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6466,29 +6475,31 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C47" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6497,21 +6508,23 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6535,13 +6548,11 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6559,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6577,52 +6588,54 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6670,13 +6683,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6688,18 +6701,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6707,10 +6720,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>51</v>
@@ -6722,15 +6735,17 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6779,46 +6794,44 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6833,13 +6846,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6890,10 +6903,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6905,32 +6918,32 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6942,15 +6955,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6999,13 +7014,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7017,7 +7032,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7028,11 +7043,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7045,22 +7060,22 @@
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7098,19 +7113,19 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7128,7 +7143,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7137,9 +7152,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7147,35 +7162,31 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7211,23 +7222,25 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7236,31 +7249,31 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>152</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>50</v>
@@ -7272,23 +7285,19 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7312,11 +7321,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7334,13 +7345,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7349,21 +7360,21 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>152</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7383,23 +7394,19 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7447,7 +7454,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7465,32 +7472,32 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7499,18 +7506,18 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7546,48 +7553,48 @@
         <v>40</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7598,28 +7605,32 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7655,25 +7666,23 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7682,23 +7691,25 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>316</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7710,25 +7721,29 @@
         <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7752,13 +7767,11 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7776,36 +7789,36 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7825,19 +7838,23 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7885,7 +7902,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7903,32 +7920,32 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -7937,18 +7954,18 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7996,13 +8013,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8014,7 +8031,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8023,42 +8040,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8107,13 +8122,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8122,21 +8137,21 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8150,7 +8165,7 @@
         <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8159,13 +8174,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8192,13 +8207,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8216,7 +8231,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8228,13 +8243,13 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8245,7 +8260,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8256,7 +8271,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8268,13 +8283,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>331</v>
+        <v>116</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8325,25 +8340,25 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>332</v>
+        <v>118</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8354,18 +8369,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8377,15 +8392,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8434,13 +8451,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8452,7 +8469,7 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8463,11 +8480,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8480,22 +8497,22 @@
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8545,7 +8562,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8563,7 +8580,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8574,40 +8591,38 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8632,13 +8647,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8656,13 +8671,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8671,10 +8686,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8685,7 +8700,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8693,10 +8708,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8708,13 +8723,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8765,25 +8780,25 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8794,7 +8809,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8817,13 +8832,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>341</v>
+        <v>114</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>342</v>
+        <v>115</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8874,7 +8889,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>340</v>
+        <v>117</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8889,10 +8904,10 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8901,13 +8916,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8917,7 +8932,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8926,15 +8941,17 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>121</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -8983,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8995,13 +9012,13 @@
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>347</v>
+        <v>118</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9012,38 +9029,40 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9092,13 +9111,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9110,7 +9129,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9121,18 +9140,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9144,17 +9163,15 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>342</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9203,13 +9220,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9218,10 +9235,10 @@
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9232,40 +9249,38 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>346</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9314,13 +9329,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9329,10 +9344,10 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9343,7 +9358,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9354,7 +9369,7 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>51</v>
@@ -9366,13 +9381,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9423,36 +9438,36 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9466,7 +9481,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9475,13 +9490,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>359</v>
+        <v>116</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9532,7 +9547,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>356</v>
+        <v>117</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9547,25 +9562,25 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9584,18 +9599,18 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>363</v>
+        <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>364</v>
+        <v>121</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9643,7 +9658,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>362</v>
+        <v>125</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9661,17 +9676,457 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM75">
+  <autoFilter ref="A1:AM79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9681,7 +10136,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
